--- a/src/main/java/com/ghana/app/qa/testdata/TorenzoWorkBook.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/TorenzoWorkBook.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CNLoginPage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>First Name</t>
   </si>
@@ -81,9 +76,6 @@
     <t>Rohit</t>
   </si>
   <si>
-    <t>sachin.patil.uk@gmailcom</t>
-  </si>
-  <si>
     <t>Arjun</t>
   </si>
   <si>
@@ -93,76 +85,6 @@
     <t>Incorrect email id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Rohan Nehe</t>
-  </si>
-  <si>
-    <t>rohan@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have requirement </t>
-  </si>
-  <si>
-    <t>Hello Team</t>
-  </si>
-  <si>
-    <t>Pratik Shirsath</t>
-  </si>
-  <si>
-    <t>pratik123@gmail.com</t>
-  </si>
-  <si>
-    <t>Hope, you all are doing great</t>
-  </si>
-  <si>
-    <t>Bhupendra Nikam</t>
-  </si>
-  <si>
-    <t>I need Torenzo Software For Bussiness</t>
-  </si>
-  <si>
-    <t>Mayur Patil</t>
-  </si>
-  <si>
-    <t>mayur@gmail.com</t>
-  </si>
-  <si>
-    <t>Rohit Kadam</t>
-  </si>
-  <si>
-    <t>I have some the Torenzo software,
-can you please help me to resolved it?</t>
-  </si>
-  <si>
-    <t>Correct Details</t>
-  </si>
-  <si>
-    <t>Blank Details</t>
-  </si>
-  <si>
-    <t>With no Name</t>
-  </si>
-  <si>
-    <t>With No Emial ID</t>
-  </si>
-  <si>
-    <t>With No Number</t>
-  </si>
-  <si>
-    <t>With No Message</t>
-  </si>
-  <si>
-    <t>With Incorrect email id</t>
-  </si>
-  <si>
     <t>rakesh.patil.uk@gmail.com</t>
   </si>
   <si>
@@ -172,13 +94,19 @@
     <t>arjun.patil.uk@gmailcom</t>
   </si>
   <si>
-    <t>rakesh@gmail.com</t>
-  </si>
-  <si>
     <t>Try Torenzo For Free Page Data</t>
   </si>
   <si>
-    <t>Leave Us Message Page Data</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>CN1234</t>
+  </si>
+  <si>
+    <t>Thawkar</t>
   </si>
 </sst>
 </file>
@@ -237,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,15 +177,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>49</v>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -662,10 +584,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -674,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -694,156 +616,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4578124512</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4578132355</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>7507680723</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9958784512</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9524874512</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/ghana/app/qa/testdata/TorenzoWorkBook.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/TorenzoWorkBook.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="3705" yWindow="4200" windowWidth="14910" windowHeight="2235" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CNLoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="CNLoginPage" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,22 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Bussiness Name</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Sachin</t>
   </si>
@@ -43,58 +29,7 @@
     <t>Patil</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>sachin.patil.uk@gmail.com</t>
-  </si>
-  <si>
-    <t>Torenzo</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Correct Info</t>
-  </si>
-  <si>
-    <t>Empty data</t>
-  </si>
-  <si>
-    <t>Empty phone no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty emilid </t>
-  </si>
-  <si>
-    <t>Empty Bussiness Name</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>Rohit</t>
-  </si>
-  <si>
     <t>Arjun</t>
-  </si>
-  <si>
-    <t>Thaokar</t>
-  </si>
-  <si>
-    <t>Incorrect email id</t>
-  </si>
-  <si>
-    <t>rakesh.patil.uk@gmail.com</t>
-  </si>
-  <si>
-    <t>jitendra.patil.uk@gmail.com</t>
-  </si>
-  <si>
-    <t>arjun.patil.uk@gmailcom</t>
-  </si>
-  <si>
-    <t>Try Torenzo For Free Page Data</t>
   </si>
   <si>
     <t>UserName</t>
@@ -113,26 +48,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,29 +80,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,7 +366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -470,217 +382,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/ghana/app/qa/testdata/TorenzoWorkBook.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/TorenzoWorkBook.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="4200" windowWidth="14910" windowHeight="2235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2820" windowWidth="14370" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="CNLoginPage" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O6"/>
+  <oleSize ref="A1:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -366,7 +366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -376,7 +376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
